--- a/report/custom_startrek_payroll.xlsx
+++ b/report/custom_startrek_payroll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>OWASP: Testing Guide v4.2 Checklist</t>
   </si>
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Target Name : </t>
   </si>
   <si>
-    <t>Start Date : 2023-06-12</t>
+    <t>Start Date : 2023-06-15</t>
   </si>
   <si>
     <t xml:space="preserve">Pentester Name : </t>
@@ -64,13 +64,10 @@
     <t>GET http://192.168.1.14:8080/</t>
   </si>
   <si>
+    <t>POST http://192.168.1.14:8080/</t>
+  </si>
+  <si>
     <t>Testing for SQL Injection</t>
-  </si>
-  <si>
-    <t>Testing for Reflected Cross Site Scripting</t>
-  </si>
-  <si>
-    <t>POST http://192.168.1.14:8080/</t>
   </si>
   <si>
     <t>GET http://192.168.1.14:8080/favicon.ico</t>
@@ -575,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -662,46 +659,34 @@
         <v>2</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="100" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="100" customHeight="1">
-      <c r="A10" s="7">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="100" customHeight="1"/>
+    <row r="10" spans="1:6" ht="100" customHeight="1"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D10">
+  <conditionalFormatting sqref="D7:D9">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"VULN"</formula>
     </cfRule>
@@ -713,7 +698,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D9">
       <formula1>"PASSED,VULN,NOT APPLICABLE"</formula1>
     </dataValidation>
   </dataValidations>
